--- a/200 Web3 projects.xlsx
+++ b/200 Web3 projects.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="894">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="893">
   <si>
     <t>Project name:</t>
   </si>
@@ -302,6 +302,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">188186 </t>
     </r>
     <r>
@@ -1059,6 +1066,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Dec 23, 2021 </t>
     </r>
     <r>
@@ -1562,7 +1576,7 @@
     <t>Clearpool</t>
   </si>
   <si>
-    <t>Ethereum蜥継olygon</t>
+    <t>Ethereum and polygon</t>
   </si>
   <si>
     <t>www.clearpool.finance</t>
@@ -2093,7 +2107,7 @@
     <t>Platform for detecting counterfeit NFT</t>
   </si>
   <si>
-    <t>Ethereum, Solana 蜥</t>
+    <t xml:space="preserve">Ethereum, Solana </t>
   </si>
   <si>
     <t>www.doppel.com/</t>
@@ -2184,9 +2198,6 @@
   </si>
   <si>
     <t>A platform that allows storytelling, music and photography creation to be transformed into NFT</t>
-  </si>
-  <si>
-    <t>Circle's stablecoin USDC</t>
   </si>
   <si>
     <t>ourhappy.company</t>
@@ -2737,12 +2748,12 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="177" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="179" formatCode="d/mmm/yy"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2850,13 +2861,6 @@
     <font>
       <sz val="9.65"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3338,48 +3342,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -3389,97 +3396,94 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3502,7 +3506,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="24" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3559,7 +3563,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="26" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3571,36 +3575,36 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="24" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="24" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3616,7 +3620,7 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="26" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4029,8 +4033,8 @@
   <sheetPr/>
   <dimension ref="A1:K201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="B136" workbookViewId="0">
+      <selection activeCell="C160" sqref="C160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -4176,7 +4180,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="26" spans="1:11">
+    <row r="5" spans="1:11">
       <c r="A5" s="11" t="s">
         <v>24</v>
       </c>
@@ -4572,7 +4576,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" ht="65" spans="1:11">
+    <row r="17" ht="26" spans="1:11">
       <c r="A17" s="20" t="s">
         <v>83</v>
       </c>
@@ -4902,7 +4906,7 @@
         <v>5927</v>
       </c>
     </row>
-    <row r="27" ht="117" spans="1:11">
+    <row r="27" spans="1:11">
       <c r="A27" s="3" t="s">
         <v>134</v>
       </c>
@@ -5232,7 +5236,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" ht="26" spans="1:11">
+    <row r="37" spans="1:11">
       <c r="A37" s="27" t="s">
         <v>180</v>
       </c>
@@ -5265,7 +5269,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" ht="26" spans="1:11">
+    <row r="38" spans="1:11">
       <c r="A38" s="27" t="s">
         <v>184</v>
       </c>
@@ -5298,7 +5302,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" ht="26" spans="1:11">
+    <row r="39" spans="1:11">
       <c r="A39" s="11" t="s">
         <v>189</v>
       </c>
@@ -5331,7 +5335,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" ht="26" spans="1:11">
+    <row r="40" spans="1:11">
       <c r="A40" s="27" t="s">
         <v>193</v>
       </c>
@@ -5430,7 +5434,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" ht="91" spans="1:11">
+    <row r="43" ht="26" spans="1:11">
       <c r="A43" s="16" t="s">
         <v>207</v>
       </c>
@@ -5826,7 +5830,7 @@
         <v>2803</v>
       </c>
     </row>
-    <row r="55" ht="52" spans="1:11">
+    <row r="55" spans="1:11">
       <c r="A55" s="8" t="s">
         <v>268</v>
       </c>
@@ -6255,7 +6259,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="68" ht="26" spans="1:11">
+    <row r="68" spans="1:11">
       <c r="A68" s="27" t="s">
         <v>335</v>
       </c>
@@ -6288,7 +6292,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" ht="39" spans="1:11">
+    <row r="69" ht="26" spans="1:11">
       <c r="A69" s="27" t="s">
         <v>339</v>
       </c>
@@ -6321,7 +6325,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" ht="26" spans="1:11">
+    <row r="70" spans="1:11">
       <c r="A70" s="11" t="s">
         <v>344</v>
       </c>
@@ -6354,7 +6358,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" ht="26" spans="1:11">
+    <row r="71" spans="1:11">
       <c r="A71" s="11" t="s">
         <v>290</v>
       </c>
@@ -6387,7 +6391,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" ht="26" spans="1:11">
+    <row r="72" spans="1:11">
       <c r="A72" s="11" t="s">
         <v>348</v>
       </c>
@@ -6420,7 +6424,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" ht="26" spans="1:11">
+    <row r="73" spans="1:11">
       <c r="A73" s="27" t="s">
         <v>352</v>
       </c>
@@ -6453,7 +6457,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" ht="26" spans="1:11">
+    <row r="74" spans="1:11">
       <c r="A74" s="27" t="s">
         <v>355</v>
       </c>
@@ -8028,7 +8032,7 @@
         <v>3220</v>
       </c>
     </row>
-    <row r="121" ht="26" spans="1:11">
+    <row r="121" spans="1:11">
       <c r="A121" s="27" t="s">
         <v>552</v>
       </c>
@@ -8063,7 +8067,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="122" ht="26" spans="1:11">
+    <row r="122" spans="1:11">
       <c r="A122" s="27" t="s">
         <v>555</v>
       </c>
@@ -8411,7 +8415,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" ht="26" spans="1:11">
+    <row r="132" spans="1:11">
       <c r="A132" s="27" t="s">
         <v>593</v>
       </c>
@@ -8446,7 +8450,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="133" ht="39" spans="1:11">
+    <row r="133" spans="1:11">
       <c r="A133" s="24" t="s">
         <v>598</v>
       </c>
@@ -8586,7 +8590,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="137" ht="39" spans="1:11">
+    <row r="137" spans="1:11">
       <c r="A137" s="11" t="s">
         <v>615</v>
       </c>
@@ -8621,7 +8625,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="138" ht="39" spans="1:11">
+    <row r="138" spans="1:11">
       <c r="A138" s="20" t="s">
         <v>618</v>
       </c>
@@ -8656,7 +8660,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="139" ht="143" spans="1:11">
+    <row r="139" ht="26" spans="1:11">
       <c r="A139" s="27" t="s">
         <v>623</v>
       </c>
@@ -8691,7 +8695,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="140" ht="26" spans="1:11">
+    <row r="140" spans="1:11">
       <c r="A140" s="11" t="s">
         <v>627</v>
       </c>
@@ -8831,7 +8835,7 @@
         <v>4473</v>
       </c>
     </row>
-    <row r="144" ht="117" spans="1:11">
+    <row r="144" spans="1:11">
       <c r="A144" s="11" t="s">
         <v>648</v>
       </c>
@@ -9146,7 +9150,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="153" ht="39" spans="1:11">
+    <row r="153" spans="1:11">
       <c r="A153" s="1" t="s">
         <v>685</v>
       </c>
@@ -9364,19 +9368,19 @@
         <v>713</v>
       </c>
       <c r="C159" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="D159" s="8" t="s">
         <v>714</v>
       </c>
-      <c r="D159" s="8" t="s">
+      <c r="E159" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F159" s="29" t="s">
         <v>715</v>
       </c>
-      <c r="E159" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F159" s="29" t="s">
+      <c r="G159" s="26" t="s">
         <v>716</v>
-      </c>
-      <c r="G159" s="26" t="s">
-        <v>717</v>
       </c>
       <c r="H159" s="36">
         <v>16</v>
@@ -9393,16 +9397,16 @@
     </row>
     <row r="160" ht="15" spans="1:11">
       <c r="A160" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="C160" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="C160" s="2" t="s">
+      <c r="D160" s="8" t="s">
         <v>720</v>
-      </c>
-      <c r="D160" s="8" t="s">
-        <v>721</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>12</v>
@@ -9428,25 +9432,25 @@
     </row>
     <row r="161" spans="1:11">
       <c r="A161" s="16" t="s">
+        <v>721</v>
+      </c>
+      <c r="B161" s="48" t="s">
         <v>722</v>
       </c>
-      <c r="B161" s="48" t="s">
+      <c r="C161" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="D161" s="8" t="s">
         <v>723</v>
       </c>
-      <c r="C161" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="D161" s="8" t="s">
+      <c r="E161" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F161" s="6" t="s">
         <v>724</v>
       </c>
-      <c r="E161" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F161" s="6" t="s">
+      <c r="G161" s="7" t="s">
         <v>725</v>
-      </c>
-      <c r="G161" s="7" t="s">
-        <v>726</v>
       </c>
       <c r="H161" s="36">
         <v>366</v>
@@ -9463,16 +9467,16 @@
     </row>
     <row r="162" spans="1:11">
       <c r="A162" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>727</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>728</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>509</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>12</v>
@@ -9498,16 +9502,16 @@
     </row>
     <row r="163" spans="1:11">
       <c r="A163" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="B163" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="C163" s="2" t="s">
         <v>731</v>
       </c>
-      <c r="C163" s="2" t="s">
+      <c r="D163" s="8" t="s">
         <v>732</v>
-      </c>
-      <c r="D163" s="8" t="s">
-        <v>733</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>12</v>
@@ -9516,7 +9520,7 @@
         <v>44495</v>
       </c>
       <c r="G163" s="14" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H163" s="1">
         <v>2324</v>
@@ -9531,18 +9535,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="164" ht="52" spans="1:11">
+    <row r="164" ht="15" spans="1:11">
       <c r="A164" s="11" t="s">
+        <v>734</v>
+      </c>
+      <c r="B164" s="11" t="s">
         <v>735</v>
-      </c>
-      <c r="B164" s="11" t="s">
-        <v>736</v>
       </c>
       <c r="C164" s="28" t="s">
         <v>516</v>
       </c>
       <c r="D164" s="27" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>12</v>
@@ -9551,7 +9555,7 @@
         <v>44679</v>
       </c>
       <c r="G164" s="47" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H164" s="11">
         <v>25837</v>
@@ -9568,54 +9572,54 @@
     </row>
     <row r="165" spans="1:11">
       <c r="A165" s="16" t="s">
+        <v>738</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="D165" s="8" t="s">
         <v>739</v>
       </c>
-      <c r="B165" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="D165" s="8" t="s">
+      <c r="E165" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F165" s="6" t="s">
         <v>740</v>
       </c>
-      <c r="E165" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F165" s="6" t="s">
+      <c r="G165" s="26" t="s">
         <v>741</v>
       </c>
-      <c r="G165" s="26" t="s">
+      <c r="H165" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J165" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K165" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="H165" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I165" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J165" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K165" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="166" ht="26" spans="1:11">
-      <c r="A166" s="1" t="s">
-        <v>743</v>
-      </c>
       <c r="B166" s="11" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C166" s="8" t="s">
         <v>687</v>
       </c>
       <c r="D166" s="17" t="s">
+        <v>743</v>
+      </c>
+      <c r="E166" s="5" t="s">
         <v>744</v>
-      </c>
-      <c r="E166" s="5" t="s">
-        <v>745</v>
       </c>
       <c r="F166" s="18">
         <v>44719</v>
@@ -9638,22 +9642,22 @@
     </row>
     <row r="167" spans="1:11">
       <c r="A167" s="32" t="s">
+        <v>745</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="C167" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="C167" s="2" t="s">
+      <c r="D167" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="D167" s="3" t="s">
+      <c r="E167" s="23" t="s">
         <v>749</v>
       </c>
-      <c r="E167" s="23" t="s">
+      <c r="F167" s="29" t="s">
         <v>750</v>
-      </c>
-      <c r="F167" s="29" t="s">
-        <v>751</v>
       </c>
       <c r="G167" s="56">
         <v>1</v>
@@ -9673,25 +9677,25 @@
     </row>
     <row r="168" ht="15" spans="1:11">
       <c r="A168" s="20" t="s">
+        <v>751</v>
+      </c>
+      <c r="B168" s="48" t="s">
         <v>752</v>
       </c>
-      <c r="B168" s="48" t="s">
+      <c r="C168" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="D168" s="8" t="s">
         <v>754</v>
       </c>
-      <c r="D168" s="8" t="s">
+      <c r="E168" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F168" s="6" t="s">
         <v>755</v>
       </c>
-      <c r="E168" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F168" s="6" t="s">
+      <c r="G168" s="7" t="s">
         <v>756</v>
-      </c>
-      <c r="G168" s="7" t="s">
-        <v>757</v>
       </c>
       <c r="H168" s="11">
         <v>11353</v>
@@ -9708,19 +9712,19 @@
     </row>
     <row r="169" spans="1:11">
       <c r="A169" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="C169" s="2" t="s">
         <v>759</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="D169" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="D169" s="3" t="s">
+      <c r="E169" s="5" t="s">
         <v>761</v>
-      </c>
-      <c r="E169" s="5" t="s">
-        <v>762</v>
       </c>
       <c r="F169" s="9">
         <v>44657</v>
@@ -9743,19 +9747,19 @@
     </row>
     <row r="170" spans="1:11">
       <c r="A170" s="57" t="s">
+        <v>762</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="C170" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="D170" s="17" t="s">
         <v>764</v>
       </c>
-      <c r="C170" s="8" t="s">
-        <v>720</v>
-      </c>
-      <c r="D170" s="17" t="s">
+      <c r="E170" s="5" t="s">
         <v>765</v>
-      </c>
-      <c r="E170" s="5" t="s">
-        <v>766</v>
       </c>
       <c r="F170" s="29" t="s">
         <v>580</v>
@@ -9778,16 +9782,16 @@
     </row>
     <row r="171" ht="15" spans="1:11">
       <c r="A171" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="C171" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="D171" s="8" t="s">
         <v>768</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>760</v>
-      </c>
-      <c r="D171" s="8" t="s">
-        <v>769</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>12</v>
@@ -9813,16 +9817,16 @@
     </row>
     <row r="172" ht="15" spans="1:11">
       <c r="A172" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="C172" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="D172" s="8" t="s">
         <v>771</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="D172" s="8" t="s">
-        <v>772</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>12</v>
@@ -9831,7 +9835,7 @@
         <v>44582</v>
       </c>
       <c r="G172" s="14" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H172" s="1">
         <v>101</v>
@@ -9848,16 +9852,16 @@
     </row>
     <row r="173" spans="1:11">
       <c r="A173" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="B173" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="C173" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="D173" s="8" t="s">
         <v>775</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="D173" s="8" t="s">
-        <v>776</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>12</v>
@@ -9883,16 +9887,16 @@
     </row>
     <row r="174" spans="1:11">
       <c r="A174" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="B174" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="C174" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="D174" s="8" t="s">
         <v>779</v>
-      </c>
-      <c r="D174" s="8" t="s">
-        <v>780</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>12</v>
@@ -9916,24 +9920,24 @@
         <v>12</v>
       </c>
     </row>
-    <row r="175" ht="39" spans="1:11">
+    <row r="175" spans="1:11">
       <c r="A175" s="20" t="s">
+        <v>780</v>
+      </c>
+      <c r="B175" s="11" t="s">
         <v>781</v>
-      </c>
-      <c r="B175" s="11" t="s">
-        <v>782</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>509</v>
       </c>
       <c r="D175" s="32" t="s">
+        <v>782</v>
+      </c>
+      <c r="E175" s="23" t="s">
         <v>783</v>
       </c>
-      <c r="E175" s="23" t="s">
+      <c r="F175" s="6" t="s">
         <v>784</v>
-      </c>
-      <c r="F175" s="6" t="s">
-        <v>785</v>
       </c>
       <c r="G175" s="7">
         <v>14</v>
@@ -9953,16 +9957,16 @@
     </row>
     <row r="176" spans="1:11">
       <c r="A176" s="16" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B176" s="48" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>509</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>12</v>
@@ -9988,23 +9992,23 @@
     </row>
     <row r="177" spans="1:11">
       <c r="A177" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D177" s="1"/>
       <c r="E177" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F177" s="6" t="s">
+        <v>788</v>
+      </c>
+      <c r="G177" s="14" t="s">
         <v>789</v>
-      </c>
-      <c r="G177" s="14" t="s">
-        <v>790</v>
       </c>
       <c r="H177" s="11">
         <v>29214</v>
@@ -10021,16 +10025,16 @@
     </row>
     <row r="178" spans="1:11">
       <c r="A178" s="8" t="s">
+        <v>790</v>
+      </c>
+      <c r="B178" s="33" t="s">
         <v>791</v>
       </c>
-      <c r="B178" s="33" t="s">
+      <c r="C178" s="2" t="s">
         <v>792</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="D178" s="8" t="s">
         <v>793</v>
-      </c>
-      <c r="D178" s="8" t="s">
-        <v>794</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>12</v>
@@ -10039,7 +10043,7 @@
         <v>233</v>
       </c>
       <c r="G178" s="26" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H178" s="1">
         <v>1850</v>
@@ -10056,22 +10060,22 @@
     </row>
     <row r="179" spans="1:11">
       <c r="A179" s="8" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B179" s="33" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>509</v>
       </c>
       <c r="D179" s="8" t="s">
+        <v>796</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F179" s="6" t="s">
         <v>797</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F179" s="6" t="s">
-        <v>798</v>
       </c>
       <c r="G179" s="7" t="s">
         <v>466</v>
@@ -10091,22 +10095,22 @@
     </row>
     <row r="180" spans="1:11">
       <c r="A180" s="17" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>509</v>
       </c>
       <c r="D180" s="17" t="s">
+        <v>799</v>
+      </c>
+      <c r="E180" s="3" t="s">
         <v>800</v>
       </c>
-      <c r="E180" s="3" t="s">
+      <c r="F180" s="29" t="s">
         <v>801</v>
-      </c>
-      <c r="F180" s="29" t="s">
-        <v>802</v>
       </c>
       <c r="G180" s="56">
         <v>18</v>
@@ -10126,19 +10130,19 @@
     </row>
     <row r="181" spans="1:11">
       <c r="A181" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="B181" s="1" t="s">
         <v>803</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>804</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>509</v>
       </c>
       <c r="D181" s="17" t="s">
+        <v>804</v>
+      </c>
+      <c r="E181" s="59" t="s">
         <v>805</v>
-      </c>
-      <c r="E181" s="59" t="s">
-        <v>806</v>
       </c>
       <c r="F181" s="9">
         <v>44699</v>
@@ -10161,19 +10165,19 @@
     </row>
     <row r="182" spans="1:11">
       <c r="A182" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="B182" s="33" t="s">
         <v>807</v>
       </c>
-      <c r="B182" s="33" t="s">
+      <c r="C182" s="2" t="s">
         <v>808</v>
       </c>
-      <c r="C182" s="2" t="s">
+      <c r="D182" s="33" t="s">
         <v>809</v>
       </c>
-      <c r="D182" s="33" t="s">
+      <c r="E182" s="23" t="s">
         <v>810</v>
-      </c>
-      <c r="E182" s="23" t="s">
-        <v>811</v>
       </c>
       <c r="F182" s="18">
         <v>44272</v>
@@ -10196,22 +10200,22 @@
     </row>
     <row r="183" spans="1:11">
       <c r="A183" s="8" t="s">
+        <v>811</v>
+      </c>
+      <c r="B183" s="33" t="s">
         <v>812</v>
-      </c>
-      <c r="B183" s="33" t="s">
-        <v>813</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>501</v>
       </c>
       <c r="D183" s="8" t="s">
+        <v>813</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F183" s="6" t="s">
         <v>814</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F183" s="6" t="s">
-        <v>815</v>
       </c>
       <c r="G183" s="7" t="s">
         <v>466</v>
@@ -10231,25 +10235,25 @@
     </row>
     <row r="184" spans="1:11">
       <c r="A184" s="33" t="s">
+        <v>815</v>
+      </c>
+      <c r="B184" s="33" t="s">
         <v>816</v>
-      </c>
-      <c r="B184" s="33" t="s">
-        <v>817</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>609</v>
       </c>
       <c r="D184" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="E184" s="12" t="s">
         <v>818</v>
       </c>
-      <c r="E184" s="12" t="s">
+      <c r="F184" s="6" t="s">
         <v>819</v>
       </c>
-      <c r="F184" s="6" t="s">
+      <c r="G184" s="7" t="s">
         <v>820</v>
-      </c>
-      <c r="G184" s="7" t="s">
-        <v>821</v>
       </c>
       <c r="H184" s="60">
         <v>220532</v>
@@ -10266,16 +10270,16 @@
     </row>
     <row r="185" ht="15" spans="1:11">
       <c r="A185" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="B185" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="C185" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="C185" s="2" t="s">
+      <c r="D185" s="8" t="s">
         <v>824</v>
-      </c>
-      <c r="D185" s="8" t="s">
-        <v>825</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>12</v>
@@ -10287,7 +10291,7 @@
         <v>138</v>
       </c>
       <c r="H185" s="61" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="I185" s="22">
         <v>0</v>
@@ -10301,22 +10305,22 @@
     </row>
     <row r="186" spans="1:11">
       <c r="A186" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B186" s="33" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>509</v>
       </c>
       <c r="D186" s="8" t="s">
+        <v>827</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F186" s="6" t="s">
         <v>828</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F186" s="6" t="s">
-        <v>829</v>
       </c>
       <c r="G186" s="7" t="s">
         <v>23</v>
@@ -10336,16 +10340,16 @@
     </row>
     <row r="187" spans="1:11">
       <c r="A187" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B187" s="1" t="s">
         <v>830</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>831</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>359</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>12</v>
@@ -10371,19 +10375,19 @@
     </row>
     <row r="188" spans="1:11">
       <c r="A188" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="B188" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="C188" s="2" t="s">
         <v>834</v>
       </c>
-      <c r="C188" s="2" t="s">
+      <c r="D188" s="8" t="s">
         <v>835</v>
       </c>
-      <c r="D188" s="8" t="s">
+      <c r="E188" s="12" t="s">
         <v>836</v>
-      </c>
-      <c r="E188" s="12" t="s">
-        <v>837</v>
       </c>
       <c r="F188" s="9">
         <v>44611</v>
@@ -10404,24 +10408,24 @@
         <v>3763</v>
       </c>
     </row>
-    <row r="189" ht="143" spans="1:11">
+    <row r="189" spans="1:11">
       <c r="A189" s="11" t="s">
+        <v>837</v>
+      </c>
+      <c r="B189" s="11" t="s">
         <v>838</v>
-      </c>
-      <c r="B189" s="11" t="s">
-        <v>839</v>
       </c>
       <c r="C189" s="28" t="s">
         <v>509</v>
       </c>
       <c r="D189" s="11" t="s">
+        <v>839</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F189" s="6" t="s">
         <v>840</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F189" s="6" t="s">
-        <v>841</v>
       </c>
       <c r="G189" s="30" t="s">
         <v>351</v>
@@ -10441,25 +10445,25 @@
     </row>
     <row r="190" spans="1:11">
       <c r="A190" s="8" t="s">
+        <v>841</v>
+      </c>
+      <c r="B190" s="33" t="s">
         <v>842</v>
       </c>
-      <c r="B190" s="33" t="s">
+      <c r="C190" s="2" t="s">
         <v>843</v>
       </c>
-      <c r="C190" s="2" t="s">
+      <c r="D190" s="8" t="s">
         <v>844</v>
       </c>
-      <c r="D190" s="8" t="s">
+      <c r="E190" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F190" s="6" t="s">
         <v>845</v>
       </c>
-      <c r="E190" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F190" s="6" t="s">
+      <c r="G190" s="26" t="s">
         <v>846</v>
-      </c>
-      <c r="G190" s="26" t="s">
-        <v>847</v>
       </c>
       <c r="H190" s="1" t="s">
         <v>12</v>
@@ -10476,25 +10480,25 @@
     </row>
     <row r="191" spans="1:11">
       <c r="A191" s="16" t="s">
+        <v>847</v>
+      </c>
+      <c r="B191" s="48" t="s">
+        <v>842</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="D191" s="3" t="s">
         <v>848</v>
       </c>
-      <c r="B191" s="48" t="s">
-        <v>843</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="D191" s="3" t="s">
+      <c r="E191" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F191" s="6" t="s">
         <v>849</v>
       </c>
-      <c r="E191" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F191" s="6" t="s">
+      <c r="G191" s="26" t="s">
         <v>850</v>
-      </c>
-      <c r="G191" s="26" t="s">
-        <v>851</v>
       </c>
       <c r="H191" s="1" t="s">
         <v>12</v>
@@ -10511,19 +10515,19 @@
     </row>
     <row r="192" ht="15" spans="1:11">
       <c r="A192" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="B192" s="1" t="s">
         <v>852</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>853</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>509</v>
       </c>
       <c r="D192" s="8" t="s">
+        <v>853</v>
+      </c>
+      <c r="E192" s="12" t="s">
         <v>854</v>
-      </c>
-      <c r="E192" s="12" t="s">
-        <v>855</v>
       </c>
       <c r="F192" s="9">
         <v>44363</v>
@@ -10546,19 +10550,19 @@
     </row>
     <row r="193" spans="1:11">
       <c r="A193" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="B193" s="1" t="s">
         <v>856</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>857</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>509</v>
       </c>
       <c r="D193" s="8" t="s">
+        <v>857</v>
+      </c>
+      <c r="E193" s="12" t="s">
         <v>858</v>
-      </c>
-      <c r="E193" s="12" t="s">
-        <v>859</v>
       </c>
       <c r="F193" s="9">
         <v>44251</v>
@@ -10581,19 +10585,19 @@
     </row>
     <row r="194" spans="1:11">
       <c r="A194" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="B194" s="1" t="s">
         <v>860</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="C194" s="2" t="s">
         <v>861</v>
       </c>
-      <c r="C194" s="2" t="s">
+      <c r="D194" s="3" t="s">
         <v>862</v>
       </c>
-      <c r="D194" s="3" t="s">
+      <c r="E194" s="12" t="s">
         <v>863</v>
-      </c>
-      <c r="E194" s="12" t="s">
-        <v>864</v>
       </c>
       <c r="F194" s="9">
         <v>44511</v>
@@ -10616,22 +10620,22 @@
     </row>
     <row r="195" spans="1:11">
       <c r="A195" s="16" t="s">
+        <v>864</v>
+      </c>
+      <c r="B195" s="48" t="s">
         <v>865</v>
       </c>
-      <c r="B195" s="48" t="s">
+      <c r="C195" s="2" t="s">
         <v>866</v>
       </c>
-      <c r="C195" s="2" t="s">
+      <c r="D195" s="8" t="s">
         <v>867</v>
       </c>
-      <c r="D195" s="8" t="s">
+      <c r="E195" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F195" s="6" t="s">
         <v>868</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F195" s="6" t="s">
-        <v>869</v>
       </c>
       <c r="G195" s="7" t="s">
         <v>111</v>
@@ -10651,22 +10655,22 @@
     </row>
     <row r="196" spans="1:11">
       <c r="A196" s="8" t="s">
+        <v>869</v>
+      </c>
+      <c r="B196" s="33" t="s">
         <v>870</v>
       </c>
-      <c r="B196" s="33" t="s">
+      <c r="C196" s="2" t="s">
         <v>871</v>
       </c>
-      <c r="C196" s="2" t="s">
+      <c r="D196" s="8" t="s">
         <v>872</v>
       </c>
-      <c r="D196" s="8" t="s">
+      <c r="E196" s="12" t="s">
         <v>873</v>
       </c>
-      <c r="E196" s="12" t="s">
+      <c r="F196" s="6" t="s">
         <v>874</v>
-      </c>
-      <c r="F196" s="6" t="s">
-        <v>875</v>
       </c>
       <c r="G196" s="7" t="s">
         <v>424</v>
@@ -10686,16 +10690,16 @@
     </row>
     <row r="197" spans="1:11">
       <c r="A197" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B197" s="1" t="s">
         <v>876</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>877</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>675</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>12</v>
@@ -10704,7 +10708,7 @@
         <v>44595</v>
       </c>
       <c r="G197" s="14" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H197" s="1" t="s">
         <v>12</v>
@@ -10721,16 +10725,16 @@
     </row>
     <row r="198" spans="1:11">
       <c r="A198" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="B198" s="1" t="s">
         <v>879</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>880</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>629</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>12</v>
@@ -10756,16 +10760,16 @@
     </row>
     <row r="199" spans="1:11">
       <c r="A199" s="8" t="s">
+        <v>881</v>
+      </c>
+      <c r="B199" s="1" t="s">
         <v>882</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>883</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>509</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>12</v>
@@ -10774,7 +10778,7 @@
         <v>187</v>
       </c>
       <c r="G199" s="14" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H199" s="1" t="s">
         <v>12</v>
@@ -10791,16 +10795,16 @@
     </row>
     <row r="200" spans="1:11">
       <c r="A200" s="8" t="s">
+        <v>885</v>
+      </c>
+      <c r="B200" s="1" t="s">
         <v>886</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>887</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>629</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>12</v>
@@ -10809,36 +10813,36 @@
         <v>672</v>
       </c>
       <c r="G200" s="26" t="s">
+        <v>888</v>
+      </c>
+      <c r="H200" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I200" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J200" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K200" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
+      <c r="A201" s="11" t="s">
         <v>889</v>
       </c>
-      <c r="H200" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I200" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J200" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K200" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="201" ht="39" spans="1:11">
-      <c r="A201" s="11" t="s">
+      <c r="B201" s="11" t="s">
         <v>890</v>
-      </c>
-      <c r="B201" s="11" t="s">
-        <v>891</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>509</v>
       </c>
       <c r="D201" s="8" t="s">
+        <v>891</v>
+      </c>
+      <c r="E201" s="12" t="s">
         <v>892</v>
-      </c>
-      <c r="E201" s="12" t="s">
-        <v>893</v>
       </c>
       <c r="F201" s="9">
         <v>44623</v>
